--- a/nr-update-deps/ig/all-profiles.xlsx
+++ b/nr-update-deps/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T08:11:38+00:00</t>
+    <t>2024-06-26T08:17:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-deps/ig/all-profiles.xlsx
+++ b/nr-update-deps/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T08:17:42+00:00</t>
+    <t>2024-06-26T08:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
